--- a/PTA25-26_UTS_Project_Data Posbindu.xlsx
+++ b/PTA25-26_UTS_Project_Data Posbindu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\[2] Download\[1] Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B39B735-D4C9-4606-A728-A4DCF4B086DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254E814F-1A93-4609-8764-82483B719BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W324"/>
+  <dimension ref="A1:V324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +559,7 @@
     <col min="22" max="22" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -626,12 +626,8 @@
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3">
-        <f>COUNTA(A1:V1)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>160</v>
       </c>
@@ -699,7 +695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>13</v>
       </c>
@@ -767,7 +763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>94</v>
       </c>
@@ -835,7 +831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>57</v>
       </c>
@@ -901,7 +897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>108</v>
       </c>
@@ -969,7 +965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>66</v>
       </c>
@@ -1037,7 +1033,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>224</v>
       </c>
@@ -1105,7 +1101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>119</v>
       </c>
@@ -1173,7 +1169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>16</v>
       </c>
@@ -1241,7 +1237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>30</v>
       </c>
@@ -1309,7 +1305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>97</v>
       </c>
@@ -1377,7 +1373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>198</v>
       </c>
@@ -1445,7 +1441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>257</v>
       </c>
@@ -1513,7 +1509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>49</v>
       </c>
@@ -1581,7 +1577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>301</v>
       </c>
